--- a/public/asistencia_test.xlsx
+++ b/public/asistencia_test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mimac/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mimac/Documents/Mis Códigos/5to Rey/VerificarQR/asistenciaqr/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1A90864-B0DF-2649-B6C3-F342152A03F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2F0EA3-3EE1-0C4B-8F34-BCF3A8235C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16260" xr2:uid="{653B074D-5261-D146-8DE0-3CCDB5C7FF69}"/>
   </bookViews>
@@ -448,7 +448,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -495,7 +495,7 @@
         <v>8</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
